--- a/analiticosxlsx/34.xlsx
+++ b/analiticosxlsx/34.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11017"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josemora/Documents/Github/Scrapers/Presupuesto 2023/analiticosxlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD5DCE5-A372-5E43-9469-0F4FEDD8936D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA43DF4A-278F-E242-93F8-B30F7675E954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2160" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-1660" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <r>
       <rPr>
@@ -1181,6 +1181,9 @@
       </rPr>
       <t>*GASTOS-(Subt.25+30+32+34+35) + Ítem25.01+Intereses y Otros Gastos Financieros de Deuda + Gasto Proyectado Fondo de Emergencia Transitorio</t>
     </r>
+  </si>
+  <si>
+    <t>En miles de US$</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1197,7 @@
     <numFmt numFmtId="167" formatCode="0.00\ %"/>
     <numFmt numFmtId="168" formatCode="000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1222,6 +1225,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1364,7 +1373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1640,6 +1649,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1982,7 +1994,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3213,7 +3225,9 @@
       <c r="L42" s="49"/>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
+      <c r="A43" s="92" t="s">
+        <v>90</v>
+      </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
